--- a/Data/Processed/Angiosperms/missing_powo_ipni/Dichapetalaceae.xlsx
+++ b/Data/Processed/Angiosperms/missing_powo_ipni/Dichapetalaceae.xlsx
@@ -1862,7 +1862,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2005,7 +2005,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
